--- a/North_Side_B_distrikt/point8/point8_271_1.xlsx
+++ b/North_Side_B_distrikt/point8/point8_271_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\North_Side_B_distrikt\point8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Documents\GitHub\Sankt-croix-Anno-1799\North_Side_B_distrikt\point8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61883A12-0150-4731-9F75-7B42CBD3AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A976D1-3A16-469F-8F53-F371A2112063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>List Whites, also negroes on Clar Mount Estate Situated in Queens Quarter the Property of.</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>död 4/4</t>
+  </si>
+  <si>
+    <t>Joe 1</t>
   </si>
 </sst>
 </file>
@@ -518,12 +521,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,8 +530,14 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,1183 +821,1183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="2:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3" t="s">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="5">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2" t="s">
+    <row r="9" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3" t="s">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2" t="s">
+    <row r="10" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="2" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="3" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2" t="s">
+    <row r="11" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="2" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="2" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="3" t="s">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2" t="s">
+    <row r="12" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="2">
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4">
         <v>3</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="2" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2" t="s">
+    <row r="15" spans="2:18" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="2" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="3" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
+    <row r="16" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="2" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="2" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="2" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="2" t="s">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="2" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="2" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="2" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="2" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="2">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="4">
         <v>53</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
         <v>49</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
         <v>95</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="2" t="s">
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="2" t="s">
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="2" t="s">
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="O34" s="4"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2" t="s">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="O36" s="4"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2" t="s">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="2" t="s">
+      <c r="O37" s="4"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2" t="s">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2" t="s">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="2" t="s">
+      <c r="O38" s="4"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2" t="s">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="2" t="s">
+      <c r="O39" s="4"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="2" t="s">
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="2" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="2" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="246">
@@ -2007,6 +2010,17 @@
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
@@ -2019,6 +2033,8 @@
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="N31:O31"/>
@@ -2028,19 +2044,12 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
@@ -2053,8 +2062,8 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
@@ -2062,20 +2071,12 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="P45:R45"/>
@@ -2122,6 +2123,8 @@
     <mergeCell ref="H25:O25"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="H27:O27"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="H18:O18"/>
@@ -2146,15 +2149,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
@@ -2170,8 +2164,15 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
@@ -2186,6 +2187,12 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F7:G7"/>
@@ -2202,6 +2209,16 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -2218,22 +2235,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="B4:C6"/>
@@ -2244,6 +2245,8 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
